--- a/com.AutomationFramework/src/test/resources/CreateUser.xlsx
+++ b/com.AutomationFramework/src/test/resources/CreateUser.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{FBB88F6F-5BB0-4C3B-8C5E-66480EDE0C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{6A775548-6E76-4A08-924C-47E7A74E8E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="23304" windowHeight="13224" xr2:uid="{A52535D1-0E34-4F4F-B25D-55E19B6635C4}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="23304" windowHeight="13224" xr2:uid="{A52535D1-0E34-4F4F-B25D-55E19B6635C4}"/>
   </bookViews>
   <sheets>
     <sheet name="CreateUser" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>username</t>
   </si>
@@ -51,6 +51,36 @@
   </si>
   <si>
     <t>phone number</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>abc@123</t>
+  </si>
+  <si>
+    <t>xyz@123</t>
+  </si>
+  <si>
+    <t>jcnsdcn</t>
+  </si>
+  <si>
+    <t>kvfkvvn</t>
+  </si>
+  <si>
+    <t>jccn@sjcnc</t>
+  </si>
+  <si>
+    <t>cncdfn</t>
+  </si>
+  <si>
+    <t>xjcnsjc</t>
+  </si>
+  <si>
+    <t>asj@dkc</t>
   </si>
 </sst>
 </file>
@@ -413,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1620980E-C58B-4AC9-AD7E-D48B4EB3755D}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -455,7 +485,57 @@
         <v>9876543210</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{F582AB7F-E03C-48EA-8371-AC93995FCD9A}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{BF11B14C-0B2D-4A44-91AB-C0C790409F3A}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{489E44D7-DCAF-472C-B8AF-199C915C2A83}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{A404073F-01A3-4499-9317-175ADDE3F8BB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>